--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="There is vs Thre are 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">él puede hablar tres idiomas</t>
   </si>
   <si>
-    <t xml:space="preserve">he can’t speak three languages</t>
+    <t xml:space="preserve">he can't speak three languages</t>
   </si>
   <si>
     <t xml:space="preserve">no puede hablar tres idiomas</t>
@@ -497,11 +497,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
@@ -577,7 +577,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.34"/>
@@ -685,7 +685,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -789,11 +789,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.39"/>
@@ -869,7 +869,7 @@
       <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
@@ -977,7 +977,7 @@
       <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -1085,9 +1085,9 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.42"/>
   </cols>
   <sheetData>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="There is vs Thre are 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -277,61 +277,61 @@
     <t xml:space="preserve">puede llover esta noche</t>
   </si>
   <si>
-    <t xml:space="preserve">my sister’s car is black</t>
+    <t xml:space="preserve">my sister's car is black</t>
   </si>
   <si>
     <t xml:space="preserve">el carro de mi hermana es negro</t>
   </si>
   <si>
-    <t xml:space="preserve">my teacher’s house is big</t>
+    <t xml:space="preserve">my teacher's house is big</t>
   </si>
   <si>
     <t xml:space="preserve">la casa de mi maestra es grande</t>
   </si>
   <si>
-    <t xml:space="preserve">the dogs’ plates are full</t>
+    <t xml:space="preserve">the dogs' plates are full</t>
   </si>
   <si>
     <t xml:space="preserve">los platos de los perros están llenos</t>
   </si>
   <si>
-    <t xml:space="preserve">he teacher’s desk are messy</t>
+    <t xml:space="preserve">he teacher's desk are messy</t>
   </si>
   <si>
     <t xml:space="preserve">el escritorio del maestro está desordenado</t>
   </si>
   <si>
-    <t xml:space="preserve">kaleb’s house is big</t>
+    <t xml:space="preserve">kaleb's house is big</t>
   </si>
   <si>
     <t xml:space="preserve">la casa de kaleb es grande</t>
   </si>
   <si>
-    <t xml:space="preserve">mary and jack’s car is new</t>
+    <t xml:space="preserve">mary and jack's car is new</t>
   </si>
   <si>
     <t xml:space="preserve">el coche de mary y jack es nuevo</t>
   </si>
   <si>
-    <t xml:space="preserve">mary’s and jack’s cars are new</t>
+    <t xml:space="preserve">mary's and jack's cars are new</t>
   </si>
   <si>
     <t xml:space="preserve">los autos de mary y jack son nuevos</t>
   </si>
   <si>
-    <t xml:space="preserve">my mom’s dog is big</t>
+    <t xml:space="preserve">my mom's dog is big</t>
   </si>
   <si>
     <t xml:space="preserve">el perro de mi mama es grande</t>
   </si>
   <si>
-    <t xml:space="preserve">lucas’s car is new</t>
+    <t xml:space="preserve">lucas's car is new</t>
   </si>
   <si>
     <t xml:space="preserve">el coche de lucas es nuevo</t>
   </si>
   <si>
-    <t xml:space="preserve">steve’s and anna’s daughter are smart</t>
+    <t xml:space="preserve">steve's and anna's daughter are smart</t>
   </si>
   <si>
     <t xml:space="preserve">la hija de steve y anna son inteligentes</t>
@@ -501,7 +501,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
@@ -577,7 +577,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.34"/>
@@ -685,7 +685,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -789,11 +789,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.39"/>
@@ -869,7 +869,7 @@
       <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
@@ -973,11 +973,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -1085,7 +1085,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.42"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="There is vs Thre are 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -169,13 +169,13 @@
     <t xml:space="preserve">edwin donde estas</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s her birthday present</t>
+    <t xml:space="preserve">it's her birthday present</t>
   </si>
   <si>
     <t xml:space="preserve">es su regalo de cumpleaños</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t like him</t>
+    <t xml:space="preserve">I don't like him</t>
   </si>
   <si>
     <t xml:space="preserve">no me gusta</t>
@@ -501,7 +501,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
@@ -577,7 +577,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.34"/>
@@ -681,11 +681,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -793,7 +793,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.39"/>
@@ -869,7 +869,7 @@
       <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
@@ -973,11 +973,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -1085,7 +1085,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.42"/>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="There is vs Thre are 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">no hay una casa</t>
   </si>
   <si>
-    <t xml:space="preserve">the isn't a plant in that picture</t>
+    <t xml:space="preserve">there isn't a plant in that picture</t>
   </si>
   <si>
     <t xml:space="preserve">no hay una planta en esa foto</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">los platos de los perros están llenos</t>
   </si>
   <si>
-    <t xml:space="preserve">he teacher's desk are messy</t>
+    <t xml:space="preserve">the teacher's desk are messy</t>
   </si>
   <si>
     <t xml:space="preserve">el escritorio del maestro está desordenado</t>
@@ -501,7 +501,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
@@ -574,10 +574,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.34"/>
@@ -681,11 +681,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.49"/>
@@ -793,7 +793,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.39"/>
@@ -869,7 +869,7 @@
       <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
@@ -973,11 +973,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
@@ -1085,7 +1085,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.42"/>
